--- a/_files/requirements/master_data/master-machine_type.xlsx
+++ b/_files/requirements/master_data/master-machine_type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\xls Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6AB69E99-3864-4062-8769-22F537929E96}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-machine_type" sheetId="1" r:id="rId1"/>
@@ -60,9 +61,6 @@
     <t>DKS</t>
   </si>
   <si>
-    <t>Dekstop</t>
-  </si>
-  <si>
     <t>Desktop Computer</t>
   </si>
   <si>
@@ -76,12 +74,15 @@
   </si>
   <si>
     <t>Ordinateurs de bureau</t>
+  </si>
+  <si>
+    <t>Desktop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -915,11 +916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -952,10 +953,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -975,10 +976,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -998,10 +999,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
